--- a/BackTest/2020-01-19 BackTest ADA.xlsx
+++ b/BackTest/2020-01-19 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>577498.37768981</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>577498.37768981</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>49.4</v>
@@ -521,7 +521,7 @@
         <v>577606.94658981</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>49.4</v>
@@ -562,7 +562,7 @@
         <v>602501.4111898099</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>49.48</v>
@@ -603,7 +603,7 @@
         <v>596031.5694898099</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>49.49</v>
@@ -640,7 +640,7 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>49.43</v>
@@ -681,7 +681,7 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>49.31</v>
@@ -722,7 +722,7 @@
         <v>589164.00058981</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>49.31</v>
@@ -763,7 +763,7 @@
         <v>506598.87578981</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>49.25</v>
@@ -804,7 +804,7 @@
         <v>473630.23748981</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>49.15</v>
@@ -845,7 +845,7 @@
         <v>462581.24518981</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>49.14</v>
@@ -886,7 +886,7 @@
         <v>248475.46318981</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>48.9</v>
@@ -927,7 +927,7 @@
         <v>247179.26318981</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>48.71</v>
@@ -968,7 +968,7 @@
         <v>248179.26318981</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>48.69</v>
@@ -1009,7 +1009,7 @@
         <v>250469.09358981</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>48.7</v>
@@ -1050,7 +1050,7 @@
         <v>295017.99708981</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>48.91</v>
@@ -1091,7 +1091,7 @@
         <v>356122.49618981</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>49.15</v>
@@ -1132,7 +1132,7 @@
         <v>398809.29958981</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>49.25</v>
@@ -1173,7 +1173,7 @@
         <v>398866.56428981</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>49.53</v>
@@ -1214,9 +1214,11 @@
         <v>454706.71798981</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>49.54</v>
+      </c>
       <c r="J21" t="n">
         <v>49.49</v>
       </c>
@@ -1253,9 +1255,11 @@
         <v>427043.55288981</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>49.68</v>
+      </c>
       <c r="J22" t="n">
         <v>49.49</v>
       </c>
@@ -1292,9 +1296,11 @@
         <v>316215.61718981</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>49.51</v>
+      </c>
       <c r="J23" t="n">
         <v>49.49</v>
       </c>
@@ -1333,7 +1339,9 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>49.41</v>
+      </c>
       <c r="J24" t="n">
         <v>49.49</v>
       </c>
@@ -1372,7 +1380,9 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>49.7</v>
+      </c>
       <c r="J25" t="n">
         <v>49.49</v>
       </c>
@@ -1409,9 +1419,11 @@
         <v>316104.09803628</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J26" t="n">
         <v>49.49</v>
       </c>
@@ -1450,7 +1462,9 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>49.67</v>
+      </c>
       <c r="J27" t="n">
         <v>49.49</v>
       </c>
@@ -1489,7 +1503,9 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>49.56</v>
+      </c>
       <c r="J28" t="n">
         <v>49.49</v>
       </c>
@@ -1528,7 +1544,9 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>49.7</v>
+      </c>
       <c r="J29" t="n">
         <v>49.49</v>
       </c>
@@ -1565,9 +1583,11 @@
         <v>312545.95823628</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>49.7</v>
+      </c>
       <c r="J30" t="n">
         <v>49.49</v>
       </c>
@@ -1604,9 +1624,11 @@
         <v>330201.14123628</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>49.7</v>
+      </c>
       <c r="J31" t="n">
         <v>49.49</v>
       </c>
@@ -1643,9 +1665,11 @@
         <v>355053.22459002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>49.8</v>
+      </c>
       <c r="J32" t="n">
         <v>49.49</v>
       </c>
@@ -1682,9 +1706,11 @@
         <v>356870.40619002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>49.84</v>
+      </c>
       <c r="J33" t="n">
         <v>49.49</v>
       </c>
@@ -1721,9 +1747,11 @@
         <v>356870.40619002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>49.9</v>
+      </c>
       <c r="J34" t="n">
         <v>49.49</v>
       </c>
@@ -1760,9 +1788,11 @@
         <v>422563.24249002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>49.9</v>
+      </c>
       <c r="J35" t="n">
         <v>49.49</v>
       </c>
@@ -2150,9 +2180,11 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>49.73</v>
+      </c>
       <c r="J45" t="n">
         <v>49.49</v>
       </c>
@@ -2189,9 +2221,11 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>49.77</v>
+      </c>
       <c r="J46" t="n">
         <v>49.49</v>
       </c>
@@ -2228,9 +2262,11 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>49.77</v>
+      </c>
       <c r="J47" t="n">
         <v>49.49</v>
       </c>
@@ -2267,9 +2303,11 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>49.77</v>
+      </c>
       <c r="J48" t="n">
         <v>49.49</v>
       </c>
@@ -2306,9 +2344,11 @@
         <v>-427470.96875712</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>49.77</v>
+      </c>
       <c r="J49" t="n">
         <v>49.49</v>
       </c>
@@ -2345,9 +2385,11 @@
         <v>-306823.06155712</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>49.76</v>
+      </c>
       <c r="J50" t="n">
         <v>49.49</v>
       </c>
@@ -2384,9 +2426,11 @@
         <v>-339275.31095712</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>49.9</v>
+      </c>
       <c r="J51" t="n">
         <v>49.49</v>
       </c>
@@ -2423,9 +2467,11 @@
         <v>-339526.88575712</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>49.88</v>
+      </c>
       <c r="J52" t="n">
         <v>49.49</v>
       </c>
@@ -2462,9 +2508,11 @@
         <v>-93802.24725712003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>49.74</v>
+      </c>
       <c r="J53" t="n">
         <v>49.49</v>
       </c>
@@ -2969,9 +3017,11 @@
         <v>-180419.49906777</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>50.31</v>
+      </c>
       <c r="J66" t="n">
         <v>49.49</v>
       </c>
@@ -3047,9 +3097,11 @@
         <v>-189386.82916777</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>50.38</v>
+      </c>
       <c r="J68" t="n">
         <v>49.49</v>
       </c>
@@ -3086,9 +3138,11 @@
         <v>-152539.33726777</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>50.27</v>
+      </c>
       <c r="J69" t="n">
         <v>49.49</v>
       </c>
@@ -3125,9 +3179,11 @@
         <v>-150551.26566777</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>50.48</v>
+      </c>
       <c r="J70" t="n">
         <v>49.49</v>
       </c>
@@ -3203,9 +3259,11 @@
         <v>669252.3722800801</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>50.54</v>
+      </c>
       <c r="J72" t="n">
         <v>49.49</v>
       </c>
@@ -4568,7 +4626,7 @@
         <v>643081.8360421599</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
@@ -4576,11 +4634,11 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>1.012983430996161</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4610,14 +4668,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4649,14 +4701,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4685,17 +4731,11 @@
         <v>502765.8639421599</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4724,17 +4764,11 @@
         <v>442354.6027421599</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4766,14 +4800,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4805,14 +4833,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4841,17 +4863,11 @@
         <v>389058.4585421599</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4880,17 +4896,11 @@
         <v>385535.0758421599</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4919,17 +4929,11 @@
         <v>-8447.568357840064</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4958,17 +4962,11 @@
         <v>60566.39234215993</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5000,14 +4998,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5039,14 +5031,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5078,14 +5064,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5117,14 +5097,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5156,14 +5130,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +5163,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +5196,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +5229,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +5262,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +5295,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +5328,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5429,14 +5361,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5468,14 +5394,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5507,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5546,14 +5460,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5585,14 +5493,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5624,14 +5526,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +5559,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5702,14 +5592,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5741,14 +5625,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5780,14 +5658,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5819,14 +5691,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5858,14 +5724,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5897,14 +5757,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5933,17 +5787,11 @@
         <v>425614.51054216</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5972,17 +5820,11 @@
         <v>425684.51054216</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6011,17 +5853,11 @@
         <v>425789.51034216</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6053,14 +5889,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6092,14 +5922,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6128,17 +5952,11 @@
         <v>422107.45964216</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6170,14 +5988,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +6021,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +6054,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6284,17 +6084,11 @@
         <v>390556.3166421601</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6323,17 +6117,11 @@
         <v>391496.3166421601</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +6153,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +6186,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6443,14 +6219,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6482,14 +6252,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6521,14 +6285,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6560,14 +6318,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6599,14 +6351,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6638,14 +6384,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6677,14 +6417,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6716,14 +6450,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6755,14 +6483,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6794,14 +6516,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6833,14 +6549,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6872,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6911,14 +6615,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6950,14 +6648,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6989,14 +6681,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7028,14 +6714,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7067,14 +6747,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7106,14 +6780,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7145,14 +6813,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7184,14 +6846,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7223,14 +6879,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7262,14 +6912,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7301,14 +6945,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7340,14 +6978,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7379,14 +7011,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7418,14 +7044,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7457,14 +7077,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7496,14 +7110,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7535,14 +7143,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7574,14 +7176,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7613,14 +7209,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7652,14 +7242,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7691,14 +7275,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7730,14 +7308,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7769,14 +7341,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7808,14 +7374,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7847,14 +7407,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7886,14 +7440,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7922,17 +7470,11 @@
         <v>687485.11901354</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7961,17 +7503,11 @@
         <v>687485.11901354</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8000,17 +7536,11 @@
         <v>592572.72571354</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8039,17 +7569,11 @@
         <v>530181.2149135399</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8078,17 +7602,11 @@
         <v>530030.1450135399</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8117,17 +7635,11 @@
         <v>512800.1190135399</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8156,17 +7668,11 @@
         <v>1182291.10991354</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8195,17 +7701,11 @@
         <v>1157951.10991354</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8237,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8276,14 +7770,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8312,17 +7800,11 @@
         <v>971338.0938834499</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8354,14 +7836,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8393,14 +7869,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8432,14 +7902,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8468,17 +7932,11 @@
         <v>1161529.11588345</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8510,14 +7968,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8549,14 +8001,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8585,17 +8031,11 @@
         <v>1161539.11588345</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +8067,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8663,17 +8097,11 @@
         <v>1132212.04568345</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8705,14 +8133,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8744,14 +8166,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8783,14 +8199,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8819,17 +8229,11 @@
         <v>1334034.71008345</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8861,14 +8265,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8897,17 +8295,11 @@
         <v>1334034.71008345</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8936,17 +8328,11 @@
         <v>1288004.77458345</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8975,17 +8361,11 @@
         <v>1288004.77458345</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9014,17 +8394,11 @@
         <v>1242989.27398345</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9053,17 +8427,11 @@
         <v>1272901.70138345</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9092,17 +8460,11 @@
         <v>1272901.70138345</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9131,17 +8493,11 @@
         <v>1272901.70138345</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9170,17 +8526,11 @@
         <v>1273001.70138345</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9209,17 +8559,11 @@
         <v>1273001.70138345</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9248,17 +8592,11 @@
         <v>1274393.14898345</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9287,17 +8625,11 @@
         <v>1274393.14898345</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9326,17 +8658,11 @@
         <v>1378411.71906905</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9365,17 +8691,11 @@
         <v>1375836.41056905</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9404,17 +8724,11 @@
         <v>1376101.67296905</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9443,17 +8757,11 @@
         <v>1365290.42216905</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9482,17 +8790,11 @@
         <v>1375340.22166905</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9521,17 +8823,11 @@
         <v>1376118.28041248</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9560,17 +8856,11 @@
         <v>1375816.20491248</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9599,17 +8889,11 @@
         <v>1393593.68176973</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9638,17 +8922,11 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9677,17 +8955,11 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9716,19 +8988,13 @@
         <v>1391640.73226973</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>1.032381289149323</v>
+        <v>1</v>
       </c>
       <c r="M239" t="inlineStr"/>
     </row>
@@ -9755,7 +9021,7 @@
         <v>1393133.28536973</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9788,7 +9054,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9821,7 +9087,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9854,7 +9120,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9887,7 +9153,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9920,7 +9186,7 @@
         <v>1393769.50086973</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9953,7 +9219,7 @@
         <v>1359610.68736973</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9986,7 +9252,7 @@
         <v>1349258.73496973</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10019,7 +9285,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10052,7 +9318,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10085,7 +9351,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10118,7 +9384,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10151,7 +9417,7 @@
         <v>1280018.30036973</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10184,7 +9450,7 @@
         <v>1286538.35067326</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10217,7 +9483,7 @@
         <v>1282848.95673387</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10250,7 +9516,7 @@
         <v>1236132.01273387</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10283,7 +9549,7 @@
         <v>1234039.82943387</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10316,7 +9582,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10349,7 +9615,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10382,7 +9648,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10415,7 +9681,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10448,7 +9714,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10481,7 +9747,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10514,7 +9780,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10547,7 +9813,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10580,7 +9846,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10613,7 +9879,7 @@
         <v>1282892.68163387</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10646,7 +9912,7 @@
         <v>1282916.28509571</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10679,7 +9945,7 @@
         <v>1280736.90109571</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10712,7 +9978,7 @@
         <v>1280736.90109571</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10745,7 +10011,7 @@
         <v>1280736.90109571</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10778,7 +10044,7 @@
         <v>1266292.72069571</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10811,7 +10077,7 @@
         <v>1245684.54169571</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10844,7 +10110,7 @@
         <v>1138257.56349571</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10877,7 +10143,7 @@
         <v>1091522.09979571</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10910,7 +10176,7 @@
         <v>1091522.09979571</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10943,7 +10209,7 @@
         <v>1091522.09979571</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10976,7 +10242,7 @@
         <v>1091522.09979571</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11009,7 +10275,7 @@
         <v>1101522.09979571</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11042,7 +10308,7 @@
         <v>1112773.38819571</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11075,7 +10341,7 @@
         <v>1112773.38819571</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11108,7 +10374,7 @@
         <v>1143682.22109571</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11141,7 +10407,7 @@
         <v>1144462.22115875</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11174,7 +10440,7 @@
         <v>1189703.88465875</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11207,7 +10473,7 @@
         <v>1189703.88465875</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11240,7 +10506,7 @@
         <v>1189703.88465875</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11273,7 +10539,7 @@
         <v>1189743.88465875</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11306,7 +10572,7 @@
         <v>1177343.88465875</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11339,7 +10605,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11372,7 +10638,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11405,7 +10671,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11438,7 +10704,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11471,7 +10737,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11504,7 +10770,7 @@
         <v>1180236.94805875</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11537,7 +10803,7 @@
         <v>1178829.94805875</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11570,7 +10836,7 @@
         <v>1153831.79885875</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11603,7 +10869,7 @@
         <v>1164123.84615875</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11636,7 +10902,7 @@
         <v>1164123.84615875</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11669,7 +10935,7 @@
         <v>1169572.99265875</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11702,7 +10968,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11735,7 +11001,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11768,7 +11034,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11801,7 +11067,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11834,7 +11100,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11867,7 +11133,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11900,7 +11166,7 @@
         <v>1170726.1020813</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11933,7 +11199,7 @@
         <v>1171055.30425016</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11966,7 +11232,7 @@
         <v>1166055.51635016</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11999,7 +11265,7 @@
         <v>1157005.51635016</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12032,7 +11298,7 @@
         <v>1117978.42610878</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12065,7 +11331,7 @@
         <v>1215182.30760878</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12098,7 +11364,7 @@
         <v>1212099.52760878</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12131,7 +11397,7 @@
         <v>1222801.55670878</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12164,7 +11430,7 @@
         <v>1221916.68530878</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12197,7 +11463,7 @@
         <v>1196687.58420878</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12230,7 +11496,7 @@
         <v>1198122.473608779</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12263,7 +11529,7 @@
         <v>748245.0418800095</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12296,7 +11562,7 @@
         <v>643904.0021800095</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12329,7 +11595,7 @@
         <v>643914.0021800095</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12362,7 +11628,7 @@
         <v>645818.6025800095</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12395,7 +11661,7 @@
         <v>648445.1513800095</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12428,7 +11694,7 @@
         <v>671055.9500800095</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12461,7 +11727,7 @@
         <v>568171.6149800095</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12494,7 +11760,7 @@
         <v>559113.3590800095</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12527,7 +11793,7 @@
         <v>344101.8558800095</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12560,7 +11826,7 @@
         <v>344101.8558800095</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12593,7 +11859,7 @@
         <v>270090.6487800095</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12626,7 +11892,7 @@
         <v>273790.2548800095</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12659,7 +11925,7 @@
         <v>273790.2548800095</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12692,7 +11958,7 @@
         <v>132164.7029800095</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12725,7 +11991,7 @@
         <v>87999.50208000946</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12758,7 +12024,7 @@
         <v>89995.78538000946</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12791,7 +12057,7 @@
         <v>89995.78538000946</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12824,7 +12090,7 @@
         <v>89995.78538000946</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12857,7 +12123,7 @@
         <v>89995.78538000946</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12890,7 +12156,7 @@
         <v>86225.99698000946</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12923,7 +12189,7 @@
         <v>92616.63263734945</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12956,7 +12222,7 @@
         <v>92616.63263734945</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12989,7 +12255,7 @@
         <v>91616.63263734945</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13022,7 +12288,7 @@
         <v>91616.63263734945</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13055,7 +12321,7 @@
         <v>90616.63263734945</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13088,7 +12354,7 @@
         <v>90616.63263734945</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13121,7 +12387,7 @@
         <v>90616.63263734945</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13154,7 +12420,7 @@
         <v>90616.63263734945</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13187,7 +12453,7 @@
         <v>140645.9636163494</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13220,7 +12486,7 @@
         <v>140645.9636163494</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13253,7 +12519,7 @@
         <v>140645.9636163494</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13286,7 +12552,7 @@
         <v>140645.9636163494</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13352,7 +12618,7 @@
         <v>140626.4735163494</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13385,7 +12651,7 @@
         <v>140711.4735163494</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13418,7 +12684,7 @@
         <v>137337.5813163494</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13451,7 +12717,7 @@
         <v>52388.59831634945</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13517,7 +12783,7 @@
         <v>-171797.1236836505</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13550,7 +12816,7 @@
         <v>-171797.1236836505</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -19787,7 +19053,7 @@
         <v>628470.6253422194</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19952,7 +19218,7 @@
         <v>1179534.574942219</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -23549,7 +22815,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23582,7 +22848,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23615,7 +22881,7 @@
         <v>1400006.31213678</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23648,7 +22914,7 @@
         <v>1399889.453636779</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23681,7 +22947,7 @@
         <v>1392811.355236779</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23714,7 +22980,7 @@
         <v>1393666.08913678</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23747,7 +23013,7 @@
         <v>1302816.646736779</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23780,7 +23046,7 @@
         <v>1220896.73083678</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23813,7 +23079,7 @@
         <v>1223864.73083678</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23846,7 +23112,7 @@
         <v>1090761.54303678</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23879,7 +23145,7 @@
         <v>1149635.1694104</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23912,7 +23178,7 @@
         <v>1104738.4886104</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23945,7 +23211,7 @@
         <v>1043167.6848104</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23978,7 +23244,7 @@
         <v>1043167.6848104</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24011,7 +23277,7 @@
         <v>1046565.8848104</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24044,7 +23310,7 @@
         <v>1046565.8848104</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24077,7 +23343,7 @@
         <v>939706.9841535796</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24110,7 +23376,7 @@
         <v>911021.8897535796</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24143,7 +23409,7 @@
         <v>922531.3964535797</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24176,7 +23442,7 @@
         <v>918927.2594535797</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24209,7 +23475,7 @@
         <v>918927.2594535797</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24242,7 +23508,7 @@
         <v>918242.8874535797</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24275,7 +23541,7 @@
         <v>918242.8874535797</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24308,7 +23574,7 @@
         <v>918242.8874535797</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24341,7 +23607,7 @@
         <v>859104.5885535796</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24374,7 +23640,7 @@
         <v>1034841.22305358</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24770,7 +24036,7 @@
         <v>1112875.76245358</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24803,7 +24069,7 @@
         <v>1255967.27775358</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24836,7 +24102,7 @@
         <v>1505723.66055358</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24869,7 +24135,7 @@
         <v>1349707.82335358</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24902,7 +24168,7 @@
         <v>1349707.82335358</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24935,7 +24201,7 @@
         <v>1349707.82335358</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24968,7 +24234,7 @@
         <v>1367232.77345358</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25001,7 +24267,7 @@
         <v>1364321.16255358</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25034,7 +24300,7 @@
         <v>1356169.16495358</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25067,7 +24333,7 @@
         <v>1379305.29435358</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25100,7 +24366,7 @@
         <v>1379305.29435358</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25133,7 +24399,7 @@
         <v>1368437.05355358</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25166,7 +24432,7 @@
         <v>1368437.05355358</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25199,7 +24465,7 @@
         <v>1426322.80775358</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25232,7 +24498,7 @@
         <v>1405548.21715358</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25265,7 +24531,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25298,7 +24564,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25331,7 +24597,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25364,7 +24630,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25397,7 +24663,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25430,7 +24696,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25463,7 +24729,7 @@
         <v>1386569.90205358</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25496,7 +24762,7 @@
         <v>1202622.48185358</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25529,7 +24795,7 @@
         <v>1207622.48185358</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25562,7 +24828,7 @@
         <v>1207622.48185358</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25595,7 +24861,7 @@
         <v>1096895.12975358</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25628,7 +24894,7 @@
         <v>1118928.41425358</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25661,7 +24927,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25694,7 +24960,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25727,7 +24993,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25760,7 +25026,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25793,7 +25059,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25826,7 +25092,7 @@
         <v>1094821.36195358</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25859,7 +25125,7 @@
         <v>1095576.58845358</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25892,7 +25158,7 @@
         <v>1095576.58845358</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25925,7 +25191,7 @@
         <v>1095576.58845358</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25958,7 +25224,7 @@
         <v>1093742.56435358</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25991,7 +25257,7 @@
         <v>1046622.56435358</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26024,7 +25290,7 @@
         <v>1046936.26735358</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26057,7 +25323,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26090,7 +25356,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26123,7 +25389,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26156,7 +25422,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26189,7 +25455,7 @@
         <v>1038732.35515358</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26222,7 +25488,7 @@
         <v>1038732.35515358</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26255,7 +25521,7 @@
         <v>1068036.61965358</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26288,7 +25554,7 @@
         <v>1206764.09225358</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26321,7 +25587,7 @@
         <v>1170841.97745358</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26354,7 +25620,7 @@
         <v>1170841.97745358</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26387,7 +25653,7 @@
         <v>1346094.82255358</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26420,7 +25686,7 @@
         <v>1346094.82255358</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26453,7 +25719,7 @@
         <v>1346094.82255358</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26486,7 +25752,7 @@
         <v>1431330.79445358</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26519,7 +25785,7 @@
         <v>1490321.38851229</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26552,7 +25818,7 @@
         <v>1486186.25631229</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26585,7 +25851,7 @@
         <v>1485396.52051229</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26618,7 +25884,7 @@
         <v>1498691.52261229</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26684,7 +25950,7 @@
         <v>1459424.64699633</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26717,7 +25983,7 @@
         <v>1347224.03039633</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26750,7 +26016,7 @@
         <v>1332284.44169633</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26783,7 +26049,7 @@
         <v>1336614.44169633</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26816,7 +26082,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26849,7 +26115,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26882,7 +26148,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26915,7 +26181,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26948,7 +26214,7 @@
         <v>1339223.61639633</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26981,7 +26247,7 @@
         <v>1343142.82532525</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27014,7 +26280,7 @@
         <v>1341601.35522525</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27047,7 +26313,7 @@
         <v>1341601.35522525</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27080,7 +26346,7 @@
         <v>1191613.17212447</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27113,7 +26379,7 @@
         <v>1527886.42122447</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27146,7 +26412,7 @@
         <v>1667580.34722447</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27179,7 +26445,7 @@
         <v>1699730.34722447</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27212,7 +26478,7 @@
         <v>1708930.34722447</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27245,7 +26511,7 @@
         <v>1815686.43223999</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27278,7 +26544,7 @@
         <v>1816600.23223999</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27311,7 +26577,7 @@
         <v>1766600.23223999</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27322,6 +26588,6 @@
       <c r="M772" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ADA.xlsx
+++ b/BackTest/2020-01-19 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>577498.37768981</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>577498.37768981</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>49.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>577606.94658981</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>602501.4111898099</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49.48</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>596031.5694898099</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="J6" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49.43</v>
-      </c>
-      <c r="J7" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,306 +649,248 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>49.31</v>
       </c>
-      <c r="J8" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="C9" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6817.048</v>
+      </c>
+      <c r="G9" t="n">
+        <v>589164.00058981</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>82565.12480000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>506598.87578981</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48.93</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>48.93</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32968.6383</v>
+      </c>
+      <c r="G11" t="n">
+        <v>473630.23748981</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>48.91</v>
+      </c>
+      <c r="C12" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>48.91</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11048.9923</v>
+      </c>
+      <c r="G12" t="n">
+        <v>462581.24518981</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="D13" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="F13" t="n">
+        <v>214105.782</v>
+      </c>
+      <c r="G13" t="n">
+        <v>248475.46318981</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1296.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>247179.26318981</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="C15" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>248179.26318981</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>49.31</v>
-      </c>
-      <c r="C9" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>49.31</v>
-      </c>
-      <c r="E9" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6817.048</v>
-      </c>
-      <c r="G9" t="n">
-        <v>589164.00058981</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>49.31</v>
-      </c>
-      <c r="J9" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>49.15</v>
-      </c>
-      <c r="D10" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>49.15</v>
-      </c>
-      <c r="F10" t="n">
-        <v>82565.12480000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>506598.87578981</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>48.93</v>
-      </c>
-      <c r="C11" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>48.93</v>
-      </c>
-      <c r="F11" t="n">
-        <v>32968.6383</v>
-      </c>
-      <c r="G11" t="n">
-        <v>473630.23748981</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>49.15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>48.91</v>
-      </c>
-      <c r="C12" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>48.91</v>
-      </c>
-      <c r="E12" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11048.9923</v>
-      </c>
-      <c r="G12" t="n">
-        <v>462581.24518981</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="C13" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="D13" t="n">
-        <v>48.94</v>
-      </c>
-      <c r="E13" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="F13" t="n">
-        <v>214105.782</v>
-      </c>
-      <c r="G13" t="n">
-        <v>248475.46318981</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="D14" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1296.2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>247179.26318981</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="J14" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="C15" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>248179.26318981</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="J15" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1014,9 +924,7 @@
       <c r="I16" t="n">
         <v>48.7</v>
       </c>
-      <c r="J16" t="n">
-        <v>49.49</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1055,9 +963,7 @@
       <c r="I17" t="n">
         <v>48.91</v>
       </c>
-      <c r="J17" t="n">
-        <v>49.49</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1096,9 +1002,7 @@
       <c r="I18" t="n">
         <v>49.15</v>
       </c>
-      <c r="J18" t="n">
-        <v>49.49</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1132,14 +1036,10 @@
         <v>398809.29958981</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="J19" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1173,14 +1073,10 @@
         <v>398866.56428981</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49.53</v>
-      </c>
-      <c r="J20" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,14 +1110,10 @@
         <v>454706.71798981</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>49.54</v>
-      </c>
-      <c r="J21" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1255,14 +1147,10 @@
         <v>427043.55288981</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49.68</v>
-      </c>
-      <c r="J22" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1296,14 +1184,10 @@
         <v>316215.61718981</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>49.51</v>
-      </c>
-      <c r="J23" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1337,14 +1221,10 @@
         <v>316738.57493628</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="J24" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1378,14 +1258,10 @@
         <v>291057.73883628</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1419,22 +1295,16 @@
         <v>316104.09803628</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>49.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1460,19 +1330,11 @@
         <v>311281.71833628</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>49.67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1501,19 +1363,11 @@
         <v>312545.95823628</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>49.56</v>
-      </c>
-      <c r="J28" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1542,19 +1396,11 @@
         <v>312545.95823628</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1583,19 +1429,11 @@
         <v>312545.95823628</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1624,19 +1462,11 @@
         <v>330201.14123628</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1495,11 @@
         <v>355053.22459002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1706,19 +1528,11 @@
         <v>356870.40619002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="J33" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1747,19 +1561,11 @@
         <v>356870.40619002</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1788,19 +1594,11 @@
         <v>422563.24249002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1829,17 +1627,11 @@
         <v>405995.52599002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1868,17 +1660,11 @@
         <v>-330051.58920998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1907,17 +1693,11 @@
         <v>-308718.40450998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1946,17 +1726,11 @@
         <v>-417908.02070998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1985,17 +1759,11 @@
         <v>-365277.26130998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2024,17 +1792,11 @@
         <v>-431222.09884325</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2063,17 +1825,11 @@
         <v>-428200.84024325</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2102,17 +1858,11 @@
         <v>-428808.63844325</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2141,17 +1891,11 @@
         <v>-428808.63844325</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2180,19 +1924,11 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>49.73</v>
-      </c>
-      <c r="J45" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2221,19 +1957,11 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>49.77</v>
-      </c>
-      <c r="J46" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2262,19 +1990,11 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>49.77</v>
-      </c>
-      <c r="J47" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2303,19 +2023,11 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49.77</v>
-      </c>
-      <c r="J48" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2344,19 +2056,11 @@
         <v>-427470.96875712</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>49.77</v>
-      </c>
-      <c r="J49" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2385,19 +2089,11 @@
         <v>-306823.06155712</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>49.76</v>
-      </c>
-      <c r="J50" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2426,19 +2122,11 @@
         <v>-339275.31095712</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2467,19 +2155,11 @@
         <v>-339526.88575712</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="J52" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2508,19 +2188,11 @@
         <v>-93802.24725712003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>49.74</v>
-      </c>
-      <c r="J53" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2549,17 +2221,11 @@
         <v>-317708.74518699</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2588,17 +2254,11 @@
         <v>-316917.50098699</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2630,14 +2290,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2666,17 +2320,11 @@
         <v>-262382.81498699</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2705,17 +2353,11 @@
         <v>-262382.81498699</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2389,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2422,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2825,14 +2455,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2861,17 +2485,11 @@
         <v>-308305.48778699</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2900,17 +2518,11 @@
         <v>-302906.28678699</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2939,17 +2551,11 @@
         <v>-312648.00368699</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2978,17 +2584,11 @@
         <v>-312614.82936777</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3017,19 +2617,11 @@
         <v>-180419.49906777</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>50.31</v>
-      </c>
-      <c r="J66" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3061,14 +2653,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3097,19 +2683,11 @@
         <v>-189386.82916777</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50.38</v>
-      </c>
-      <c r="J68" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3138,19 +2716,11 @@
         <v>-152539.33726777</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>50.27</v>
-      </c>
-      <c r="J69" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3179,19 +2749,11 @@
         <v>-150551.26566777</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>50.48</v>
-      </c>
-      <c r="J70" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3259,19 +2815,11 @@
         <v>669252.3722800801</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="J72" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +2851,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3342,14 +2884,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3381,14 +2917,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3420,14 +2950,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3459,14 +2983,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3498,14 +3016,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3537,14 +3049,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3576,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3181,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3771,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3810,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3849,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3888,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3927,14 +3379,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3966,14 +3412,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4005,14 +3445,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4044,14 +3478,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4083,14 +3511,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4122,14 +3544,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4200,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4239,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4278,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4395,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4473,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4551,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4590,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4626,19 +3970,13 @@
         <v>643081.8360421599</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>49.49</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>1.012983430996161</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4731,7 +4069,7 @@
         <v>502765.8639421599</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4764,7 +4102,7 @@
         <v>442354.6027421599</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4863,7 +4201,7 @@
         <v>389058.4585421599</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4896,7 +4234,7 @@
         <v>385535.0758421599</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4929,7 +4267,7 @@
         <v>-8447.568357840064</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4962,7 +4300,7 @@
         <v>60566.39234215993</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -7470,7 +6808,7 @@
         <v>687485.11901354</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7503,7 +6841,7 @@
         <v>687485.11901354</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7536,7 +6874,7 @@
         <v>592572.72571354</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7569,7 +6907,7 @@
         <v>530181.2149135399</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7602,7 +6940,7 @@
         <v>530030.1450135399</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7635,7 +6973,7 @@
         <v>512800.1190135399</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7668,7 +7006,7 @@
         <v>1182291.10991354</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7701,7 +7039,7 @@
         <v>1157951.10991354</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7800,7 +7138,7 @@
         <v>971338.0938834499</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7932,7 +7270,7 @@
         <v>1161529.11588345</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8031,7 +7369,7 @@
         <v>1161539.11588345</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8097,7 +7435,7 @@
         <v>1132212.04568345</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8229,7 +7567,7 @@
         <v>1334034.71008345</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8295,7 +7633,7 @@
         <v>1334034.71008345</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8328,7 +7666,7 @@
         <v>1288004.77458345</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8361,7 +7699,7 @@
         <v>1288004.77458345</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8394,7 +7732,7 @@
         <v>1242989.27398345</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8427,7 +7765,7 @@
         <v>1272901.70138345</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8460,7 +7798,7 @@
         <v>1272901.70138345</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8493,7 +7831,7 @@
         <v>1272901.70138345</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8526,7 +7864,7 @@
         <v>1273001.70138345</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8559,7 +7897,7 @@
         <v>1273001.70138345</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8592,7 +7930,7 @@
         <v>1274393.14898345</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8625,7 +7963,7 @@
         <v>1274393.14898345</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8658,7 +7996,7 @@
         <v>1378411.71906905</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8691,7 +8029,7 @@
         <v>1375836.41056905</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8724,7 +8062,7 @@
         <v>1376101.67296905</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8757,7 +8095,7 @@
         <v>1365290.42216905</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8790,7 +8128,7 @@
         <v>1375340.22166905</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8823,7 +8161,7 @@
         <v>1376118.28041248</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8856,7 +8194,7 @@
         <v>1375816.20491248</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8889,7 +8227,7 @@
         <v>1393593.68176973</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8922,7 +8260,7 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8955,7 +8293,7 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8988,7 +8326,7 @@
         <v>1391640.73226973</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9021,7 +8359,7 @@
         <v>1393133.28536973</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9054,7 +8392,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9087,7 +8425,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9120,7 +8458,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9153,7 +8491,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9186,7 +8524,7 @@
         <v>1393769.50086973</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9219,7 +8557,7 @@
         <v>1359610.68736973</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9252,7 +8590,7 @@
         <v>1349258.73496973</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9285,7 +8623,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9318,7 +8656,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9351,7 +8689,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9384,7 +8722,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9417,7 +8755,7 @@
         <v>1280018.30036973</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9450,7 +8788,7 @@
         <v>1286538.35067326</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9483,7 +8821,7 @@
         <v>1282848.95673387</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9516,7 +8854,7 @@
         <v>1236132.01273387</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9549,7 +8887,7 @@
         <v>1234039.82943387</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9582,7 +8920,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9615,7 +8953,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9648,7 +8986,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9681,7 +9019,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9714,7 +9052,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9747,7 +9085,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9780,7 +9118,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9813,7 +9151,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9846,7 +9184,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9879,7 +9217,7 @@
         <v>1282892.68163387</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9912,7 +9250,7 @@
         <v>1282916.28509571</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9945,7 +9283,7 @@
         <v>1280736.90109571</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9978,7 +9316,7 @@
         <v>1280736.90109571</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10011,7 +9349,7 @@
         <v>1280736.90109571</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10044,7 +9382,7 @@
         <v>1266292.72069571</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10077,7 +9415,7 @@
         <v>1245684.54169571</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10110,7 +9448,7 @@
         <v>1138257.56349571</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10143,7 +9481,7 @@
         <v>1091522.09979571</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10176,7 +9514,7 @@
         <v>1091522.09979571</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10209,7 +9547,7 @@
         <v>1091522.09979571</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10242,7 +9580,7 @@
         <v>1091522.09979571</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10275,7 +9613,7 @@
         <v>1101522.09979571</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10308,7 +9646,7 @@
         <v>1112773.38819571</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10341,7 +9679,7 @@
         <v>1112773.38819571</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10374,7 +9712,7 @@
         <v>1143682.22109571</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10407,7 +9745,7 @@
         <v>1144462.22115875</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10440,7 +9778,7 @@
         <v>1189703.88465875</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10473,7 +9811,7 @@
         <v>1189703.88465875</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10506,7 +9844,7 @@
         <v>1189703.88465875</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10539,7 +9877,7 @@
         <v>1189743.88465875</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10572,7 +9910,7 @@
         <v>1177343.88465875</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10605,7 +9943,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10638,7 +9976,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10671,7 +10009,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10704,7 +10042,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10737,7 +10075,7 @@
         <v>1180226.94805875</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10770,7 +10108,7 @@
         <v>1180236.94805875</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10803,7 +10141,7 @@
         <v>1178829.94805875</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10836,7 +10174,7 @@
         <v>1153831.79885875</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10869,7 +10207,7 @@
         <v>1164123.84615875</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10902,7 +10240,7 @@
         <v>1164123.84615875</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10935,7 +10273,7 @@
         <v>1169572.99265875</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10968,7 +10306,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11001,7 +10339,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11034,7 +10372,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11067,7 +10405,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11100,7 +10438,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11133,7 +10471,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11166,7 +10504,7 @@
         <v>1170726.1020813</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11199,7 +10537,7 @@
         <v>1171055.30425016</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11232,7 +10570,7 @@
         <v>1166055.51635016</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11265,7 +10603,7 @@
         <v>1157005.51635016</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11298,7 +10636,7 @@
         <v>1117978.42610878</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11331,7 +10669,7 @@
         <v>1215182.30760878</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11364,7 +10702,7 @@
         <v>1212099.52760878</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11397,7 +10735,7 @@
         <v>1222801.55670878</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11430,7 +10768,7 @@
         <v>1221916.68530878</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11463,7 +10801,7 @@
         <v>1196687.58420878</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11496,7 +10834,7 @@
         <v>1198122.473608779</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11529,7 +10867,7 @@
         <v>748245.0418800095</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11562,7 +10900,7 @@
         <v>643904.0021800095</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11595,7 +10933,7 @@
         <v>643914.0021800095</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11628,7 +10966,7 @@
         <v>645818.6025800095</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11661,7 +10999,7 @@
         <v>648445.1513800095</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11694,7 +11032,7 @@
         <v>671055.9500800095</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11727,7 +11065,7 @@
         <v>568171.6149800095</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11760,7 +11098,7 @@
         <v>559113.3590800095</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11793,7 +11131,7 @@
         <v>344101.8558800095</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11826,7 +11164,7 @@
         <v>344101.8558800095</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11859,7 +11197,7 @@
         <v>270090.6487800095</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11892,7 +11230,7 @@
         <v>273790.2548800095</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11925,7 +11263,7 @@
         <v>273790.2548800095</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11958,7 +11296,7 @@
         <v>132164.7029800095</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11991,7 +11329,7 @@
         <v>87999.50208000946</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12024,7 +11362,7 @@
         <v>89995.78538000946</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12057,7 +11395,7 @@
         <v>89995.78538000946</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12090,7 +11428,7 @@
         <v>89995.78538000946</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12123,7 +11461,7 @@
         <v>89995.78538000946</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12156,7 +11494,7 @@
         <v>86225.99698000946</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12189,7 +11527,7 @@
         <v>92616.63263734945</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12222,7 +11560,7 @@
         <v>92616.63263734945</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12255,7 +11593,7 @@
         <v>91616.63263734945</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12288,7 +11626,7 @@
         <v>91616.63263734945</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12321,7 +11659,7 @@
         <v>90616.63263734945</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12354,7 +11692,7 @@
         <v>90616.63263734945</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12387,7 +11725,7 @@
         <v>90616.63263734945</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12420,7 +11758,7 @@
         <v>90616.63263734945</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12453,7 +11791,7 @@
         <v>140645.9636163494</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12486,7 +11824,7 @@
         <v>140645.9636163494</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12519,7 +11857,7 @@
         <v>140645.9636163494</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12552,7 +11890,7 @@
         <v>140645.9636163494</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12618,7 +11956,7 @@
         <v>140626.4735163494</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12651,7 +11989,7 @@
         <v>140711.4735163494</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12684,7 +12022,7 @@
         <v>137337.5813163494</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12717,7 +12055,7 @@
         <v>52388.59831634945</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12783,7 +12121,7 @@
         <v>-171797.1236836505</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12816,7 +12154,7 @@
         <v>-171797.1236836505</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13872,11 +13210,17 @@
         <v>626514.1817163494</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>50.38</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13909,7 +13253,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13938,11 +13286,17 @@
         <v>623946.7381163494</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>50.44</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13971,11 +13325,17 @@
         <v>623946.7381163494</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>50.26</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14004,11 +13364,17 @@
         <v>623946.7381163494</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>50.26</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14037,11 +13403,17 @@
         <v>341194.0316163495</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>50.26</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14070,11 +13442,17 @@
         <v>180658.2109163495</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>50.04</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14103,11 +13481,17 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>50.03</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14136,11 +13520,17 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>50.18</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14169,11 +13559,17 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>50.18</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +13598,17 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>50.18</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14235,11 +13637,17 @@
         <v>165326.9262163495</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>50.18</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14272,7 +13680,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14305,7 +13717,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14334,11 +13750,17 @@
         <v>57143.16571634947</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14371,7 +13793,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14404,7 +13830,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14433,11 +13863,17 @@
         <v>-1721.751283650538</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>50.15</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14466,11 +13902,17 @@
         <v>77702.66501634946</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>50.13</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14499,11 +13941,17 @@
         <v>77702.66501634946</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14536,7 +13984,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14569,7 +14021,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14602,7 +14058,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14635,7 +14095,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +14132,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14701,7 +14169,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14734,7 +14206,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14767,7 +14243,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14796,11 +14276,17 @@
         <v>281666.5908351095</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>50.17</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14829,11 +14315,17 @@
         <v>281666.5908351095</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>50.31</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14862,11 +14354,17 @@
         <v>282165.2794899795</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>50.31</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14899,7 +14397,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14932,7 +14434,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14965,7 +14471,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14998,7 +14508,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15031,7 +14545,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15064,7 +14582,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15097,7 +14619,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15130,7 +14656,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15163,7 +14693,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15196,7 +14730,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15229,7 +14767,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15262,7 +14804,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15295,7 +14841,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15328,7 +14878,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15361,7 +14915,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15394,7 +14952,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15427,7 +14989,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15460,7 +15026,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15493,7 +15063,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15526,7 +15100,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15559,7 +15137,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15592,7 +15174,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15625,7 +15211,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15658,7 +15248,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15691,7 +15285,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15724,7 +15322,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15757,7 +15359,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15790,7 +15396,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15823,7 +15433,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15856,7 +15470,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15889,7 +15507,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15922,7 +15544,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15955,7 +15581,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15988,7 +15618,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16021,7 +15655,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16054,7 +15692,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16087,7 +15729,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16120,7 +15766,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16153,7 +15803,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16186,7 +15840,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16219,7 +15877,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16252,7 +15914,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16285,7 +15951,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16318,7 +15988,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16351,7 +16025,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16384,7 +16062,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16417,7 +16099,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16450,7 +16136,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16483,7 +16173,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16516,7 +16210,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16549,7 +16247,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16582,7 +16284,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16615,7 +16321,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16648,7 +16358,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16681,7 +16395,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16714,7 +16432,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16747,7 +16469,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16780,7 +16506,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16813,7 +16543,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16846,7 +16580,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16879,7 +16617,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16912,7 +16654,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16945,7 +16691,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16978,7 +16728,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17011,7 +16765,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17044,7 +16802,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17077,7 +16839,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17110,7 +16876,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17143,7 +16913,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17172,11 +16946,17 @@
         <v>581702.9739364394</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>48.78</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17205,11 +16985,17 @@
         <v>579742.9281364394</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>48.89</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17238,11 +17024,17 @@
         <v>557345.3614364394</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>48.76</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17271,11 +17063,17 @@
         <v>560469.4465364395</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>48.61</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17304,11 +17102,17 @@
         <v>559469.4465364395</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>48.76</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17337,11 +17141,17 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>48.74</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17370,11 +17180,17 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>48.76</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17403,11 +17219,17 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>48.76</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17436,11 +17258,17 @@
         <v>570022.6329364395</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>48.76</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17469,11 +17297,17 @@
         <v>571426.5272364395</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>49.02</v>
+      </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17506,7 +17340,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17539,7 +17377,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17572,7 +17414,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17605,7 +17451,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17638,7 +17488,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17671,7 +17525,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17704,7 +17562,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17737,7 +17599,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17770,7 +17636,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17803,7 +17673,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17836,7 +17710,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17869,7 +17747,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17902,7 +17784,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17935,7 +17821,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17968,7 +17858,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18001,7 +17895,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18034,7 +17932,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18067,7 +17969,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18100,7 +18006,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18133,7 +18043,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18166,7 +18080,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18199,7 +18117,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18232,7 +18154,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18265,7 +18191,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18298,7 +18228,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18331,7 +18265,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18364,7 +18302,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18397,7 +18339,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18430,7 +18376,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18463,7 +18413,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18496,7 +18450,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18529,7 +18487,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18562,7 +18524,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18595,7 +18561,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18624,14 +18594,16 @@
         <v>571335.3618422195</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="inlineStr"/>
     </row>
     <row r="532">
@@ -18657,7 +18629,7 @@
         <v>570242.9556422195</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18690,7 +18662,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18723,7 +18695,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18756,7 +18728,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18789,7 +18761,7 @@
         <v>566953.8422422195</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18822,7 +18794,7 @@
         <v>661553.8422422195</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18855,7 +18827,7 @@
         <v>673134.0522422194</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18888,7 +18860,7 @@
         <v>673134.0522422194</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18921,7 +18893,7 @@
         <v>687400.5964422195</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18954,7 +18926,7 @@
         <v>687400.5964422195</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18987,7 +18959,7 @@
         <v>646677.3508422194</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19020,7 +18992,7 @@
         <v>646677.3508422194</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19053,7 +19025,7 @@
         <v>628470.6253422194</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19086,7 +19058,7 @@
         <v>1031294.495042219</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19119,7 +19091,7 @@
         <v>1021591.265842219</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19152,7 +19124,7 @@
         <v>1179386.919742219</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19185,7 +19157,7 @@
         <v>1179386.919742219</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19218,7 +19190,7 @@
         <v>1179534.574942219</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19251,7 +19223,7 @@
         <v>1179717.818942219</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19284,7 +19256,7 @@
         <v>1178875.961442219</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19317,7 +19289,7 @@
         <v>1178875.961442219</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19911,7 +19883,7 @@
         <v>994733.2346167694</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19944,7 +19916,7 @@
         <v>999144.4532167694</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19977,7 +19949,7 @@
         <v>999111.4532167694</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21858,7 +21830,7 @@
         <v>953586.1773402494</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22089,7 +22061,7 @@
         <v>1307573.10354025</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22122,7 +22094,7 @@
         <v>1307573.10354025</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22155,7 +22127,7 @@
         <v>1321933.34214025</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22188,7 +22160,7 @@
         <v>1363791.06434025</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22221,7 +22193,7 @@
         <v>1363850.53784025</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22815,7 +22787,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22848,7 +22820,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22881,7 +22853,7 @@
         <v>1400006.31213678</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22914,7 +22886,7 @@
         <v>1399889.453636779</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22947,7 +22919,7 @@
         <v>1392811.355236779</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22980,7 +22952,7 @@
         <v>1393666.08913678</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23013,7 +22985,7 @@
         <v>1302816.646736779</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23046,7 +23018,7 @@
         <v>1220896.73083678</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23079,7 +23051,7 @@
         <v>1223864.73083678</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23112,7 +23084,7 @@
         <v>1090761.54303678</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23145,7 +23117,7 @@
         <v>1149635.1694104</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23178,7 +23150,7 @@
         <v>1104738.4886104</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23211,7 +23183,7 @@
         <v>1043167.6848104</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23244,7 +23216,7 @@
         <v>1043167.6848104</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23277,7 +23249,7 @@
         <v>1046565.8848104</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23310,7 +23282,7 @@
         <v>1046565.8848104</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23343,7 +23315,7 @@
         <v>939706.9841535796</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23376,7 +23348,7 @@
         <v>911021.8897535796</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23409,7 +23381,7 @@
         <v>922531.3964535797</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23442,7 +23414,7 @@
         <v>918927.2594535797</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23475,7 +23447,7 @@
         <v>918927.2594535797</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23508,7 +23480,7 @@
         <v>918242.8874535797</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23541,7 +23513,7 @@
         <v>918242.8874535797</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23574,7 +23546,7 @@
         <v>918242.8874535797</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23607,7 +23579,7 @@
         <v>859104.5885535796</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23640,7 +23612,7 @@
         <v>1034841.22305358</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24036,7 +24008,7 @@
         <v>1112875.76245358</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24069,7 +24041,7 @@
         <v>1255967.27775358</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24102,7 +24074,7 @@
         <v>1505723.66055358</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24135,7 +24107,7 @@
         <v>1349707.82335358</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24168,7 +24140,7 @@
         <v>1349707.82335358</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24201,7 +24173,7 @@
         <v>1349707.82335358</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24234,7 +24206,7 @@
         <v>1367232.77345358</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24267,7 +24239,7 @@
         <v>1364321.16255358</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24300,7 +24272,7 @@
         <v>1356169.16495358</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24333,7 +24305,7 @@
         <v>1379305.29435358</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24366,7 +24338,7 @@
         <v>1379305.29435358</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24399,7 +24371,7 @@
         <v>1368437.05355358</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24432,7 +24404,7 @@
         <v>1368437.05355358</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24465,7 +24437,7 @@
         <v>1426322.80775358</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24498,7 +24470,7 @@
         <v>1405548.21715358</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24531,7 +24503,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24564,7 +24536,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24597,7 +24569,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24630,7 +24602,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24663,7 +24635,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24696,7 +24668,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24729,7 +24701,7 @@
         <v>1386569.90205358</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24762,7 +24734,7 @@
         <v>1202622.48185358</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24795,7 +24767,7 @@
         <v>1207622.48185358</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24828,7 +24800,7 @@
         <v>1207622.48185358</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24861,7 +24833,7 @@
         <v>1096895.12975358</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24894,7 +24866,7 @@
         <v>1118928.41425358</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24927,7 +24899,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24960,7 +24932,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24993,7 +24965,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25026,7 +24998,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25059,7 +25031,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25092,7 +25064,7 @@
         <v>1094821.36195358</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25125,7 +25097,7 @@
         <v>1095576.58845358</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25158,7 +25130,7 @@
         <v>1095576.58845358</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25191,7 +25163,7 @@
         <v>1095576.58845358</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25224,7 +25196,7 @@
         <v>1093742.56435358</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25257,7 +25229,7 @@
         <v>1046622.56435358</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25290,7 +25262,7 @@
         <v>1046936.26735358</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25323,7 +25295,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25356,7 +25328,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25389,7 +25361,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25422,7 +25394,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25455,7 +25427,7 @@
         <v>1038732.35515358</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25488,7 +25460,7 @@
         <v>1038732.35515358</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25521,7 +25493,7 @@
         <v>1068036.61965358</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25554,7 +25526,7 @@
         <v>1206764.09225358</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25587,7 +25559,7 @@
         <v>1170841.97745358</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25620,7 +25592,7 @@
         <v>1170841.97745358</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25653,7 +25625,7 @@
         <v>1346094.82255358</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25686,7 +25658,7 @@
         <v>1346094.82255358</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25719,7 +25691,7 @@
         <v>1346094.82255358</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25752,7 +25724,7 @@
         <v>1431330.79445358</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25785,7 +25757,7 @@
         <v>1490321.38851229</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25818,7 +25790,7 @@
         <v>1486186.25631229</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25851,7 +25823,7 @@
         <v>1485396.52051229</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25884,7 +25856,7 @@
         <v>1498691.52261229</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25950,7 +25922,7 @@
         <v>1459424.64699633</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25983,7 +25955,7 @@
         <v>1347224.03039633</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26016,7 +25988,7 @@
         <v>1332284.44169633</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26049,7 +26021,7 @@
         <v>1336614.44169633</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26082,7 +26054,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26115,7 +26087,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26148,7 +26120,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26181,7 +26153,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26214,7 +26186,7 @@
         <v>1339223.61639633</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26247,7 +26219,7 @@
         <v>1343142.82532525</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26280,7 +26252,7 @@
         <v>1341601.35522525</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26313,7 +26285,7 @@
         <v>1341601.35522525</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26346,7 +26318,7 @@
         <v>1191613.17212447</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26379,7 +26351,7 @@
         <v>1527886.42122447</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26412,7 +26384,7 @@
         <v>1667580.34722447</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26445,7 +26417,7 @@
         <v>1699730.34722447</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26478,7 +26450,7 @@
         <v>1708930.34722447</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26511,7 +26483,7 @@
         <v>1815686.43223999</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26544,7 +26516,7 @@
         <v>1816600.23223999</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26577,7 +26549,7 @@
         <v>1766600.23223999</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26588,6 +26560,6 @@
       <c r="M772" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ADA.xlsx
+++ b/BackTest/2020-01-19 BackTest ADA.xlsx
@@ -451,7 +451,7 @@
         <v>577498.37768981</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>577498.37768981</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>49.4</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>577606.94658981</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>602501.4111898099</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>596031.5694898099</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="J6" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>49.43</v>
+      </c>
+      <c r="J7" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>589164.00058981</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="J9" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>506598.87578981</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>473630.23748981</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>462581.24518981</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>248475.46318981</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>247179.26318981</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="J14" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -885,10 +973,12 @@
       <c r="I15" t="n">
         <v>48.69</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -924,7 +1014,9 @@
       <c r="I16" t="n">
         <v>48.7</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -963,7 +1055,9 @@
       <c r="I17" t="n">
         <v>48.91</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1002,7 +1096,9 @@
       <c r="I18" t="n">
         <v>49.15</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1036,10 +1132,14 @@
         <v>398809.29958981</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1073,10 +1173,14 @@
         <v>398866.56428981</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>49.53</v>
+      </c>
+      <c r="J20" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1110,10 +1214,12 @@
         <v>454706.71798981</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1147,10 +1253,12 @@
         <v>427043.55288981</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1184,10 +1292,12 @@
         <v>316215.61718981</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1221,10 +1331,12 @@
         <v>316738.57493628</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1258,10 +1370,12 @@
         <v>291057.73883628</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1295,16 +1409,20 @@
         <v>316104.09803628</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>49.49</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1330,11 +1448,17 @@
         <v>311281.71833628</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1363,11 +1487,17 @@
         <v>312545.95823628</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1396,11 +1526,17 @@
         <v>312545.95823628</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1429,11 +1565,17 @@
         <v>312545.95823628</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1462,11 +1604,17 @@
         <v>330201.14123628</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1495,11 +1643,17 @@
         <v>355053.22459002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1528,11 +1682,17 @@
         <v>356870.40619002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1561,11 +1721,17 @@
         <v>356870.40619002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1594,11 +1760,17 @@
         <v>422563.24249002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1627,11 +1799,17 @@
         <v>405995.52599002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1660,11 +1838,17 @@
         <v>-330051.58920998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1693,11 +1877,17 @@
         <v>-308718.40450998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1726,11 +1916,17 @@
         <v>-417908.02070998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1759,11 +1955,17 @@
         <v>-365277.26130998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1792,11 +1994,17 @@
         <v>-431222.09884325</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1825,11 +2033,17 @@
         <v>-428200.84024325</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1858,11 +2072,17 @@
         <v>-428808.63844325</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1891,11 +2111,19 @@
         <v>-428808.63844325</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>49.73</v>
+      </c>
+      <c r="J44" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +2152,17 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1957,11 +2191,19 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>49.77</v>
+      </c>
+      <c r="J46" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1990,11 +2232,19 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>49.77</v>
+      </c>
+      <c r="J47" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2023,11 +2273,19 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>49.77</v>
+      </c>
+      <c r="J48" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2059,8 +2317,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2089,11 +2353,19 @@
         <v>-306823.06155712</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>49.76</v>
+      </c>
+      <c r="J50" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +2394,19 @@
         <v>-339275.31095712</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2435,19 @@
         <v>-339526.88575712</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="J52" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2476,19 @@
         <v>-93802.24725712003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>49.74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +2517,17 @@
         <v>-317708.74518699</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2556,17 @@
         <v>-316917.50098699</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2290,8 +2598,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2320,11 +2634,17 @@
         <v>-262382.81498699</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2353,11 +2673,17 @@
         <v>-262382.81498699</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2389,8 +2715,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2422,8 +2754,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2455,8 +2793,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2485,11 +2829,19 @@
         <v>-308305.48778699</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="J62" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2518,11 +2870,19 @@
         <v>-302906.28678699</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>50</v>
+      </c>
+      <c r="J63" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2551,11 +2911,19 @@
         <v>-312648.00368699</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="J64" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2952,19 @@
         <v>-312614.82936777</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2617,11 +2993,19 @@
         <v>-180419.49906777</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>50.31</v>
+      </c>
+      <c r="J66" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2650,11 +3034,19 @@
         <v>-189025.29676777</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="J67" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2683,11 +3075,19 @@
         <v>-189386.82916777</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="J68" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2716,11 +3116,19 @@
         <v>-152539.33726777</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>50.27</v>
+      </c>
+      <c r="J69" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2749,11 +3157,19 @@
         <v>-150551.26566777</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="J70" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2782,11 +3198,19 @@
         <v>-99839.01826777001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="J71" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2815,11 +3239,19 @@
         <v>669252.3722800801</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="J72" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2851,8 +3283,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2884,8 +3322,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2917,8 +3361,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2950,8 +3400,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2983,8 +3439,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3016,8 +3478,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3049,8 +3517,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3556,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3115,8 +3595,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3148,8 +3634,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3181,8 +3673,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3214,8 +3712,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3247,8 +3751,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3280,8 +3790,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3313,8 +3829,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3346,8 +3868,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3379,8 +3907,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3412,8 +3946,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3445,8 +3985,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3478,8 +4024,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3511,8 +4063,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3544,8 +4102,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3577,8 +4141,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3610,8 +4180,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3643,8 +4219,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3676,8 +4258,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3709,8 +4297,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3742,8 +4336,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3775,8 +4375,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3808,8 +4414,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3841,8 +4453,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3874,8 +4492,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3907,8 +4531,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3940,8 +4570,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3973,8 +4609,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4006,8 +4648,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4039,8 +4687,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4072,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4105,8 +4765,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4138,8 +4804,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4171,8 +4843,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4204,8 +4882,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4921,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4270,8 +4960,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4303,8 +4999,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4336,8 +5038,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4369,8 +5077,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4402,8 +5116,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4435,8 +5155,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4468,8 +5194,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4501,8 +5233,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4534,8 +5272,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4567,8 +5311,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4600,8 +5350,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4633,8 +5389,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4666,8 +5428,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4699,8 +5467,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4732,8 +5506,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4765,8 +5545,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4798,8 +5584,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4831,8 +5623,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4864,8 +5662,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4897,8 +5701,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4930,8 +5740,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4963,8 +5779,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4996,8 +5818,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5029,8 +5857,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5062,8 +5896,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5095,8 +5935,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5128,8 +5974,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5161,8 +6013,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5194,8 +6052,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5227,8 +6091,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5260,8 +6130,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5293,8 +6169,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5326,8 +6208,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +6247,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +6286,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5425,8 +6325,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5458,8 +6364,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5491,8 +6403,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5524,8 +6442,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5557,8 +6481,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5590,8 +6520,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5623,8 +6559,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5656,8 +6598,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5689,8 +6637,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5722,8 +6676,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5755,8 +6715,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5788,8 +6754,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5821,8 +6793,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5854,8 +6832,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5887,8 +6871,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5920,8 +6910,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5953,8 +6949,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5986,8 +6988,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6019,8 +7027,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6052,8 +7066,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6085,8 +7105,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6118,8 +7144,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6151,8 +7183,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6184,8 +7222,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6217,8 +7261,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6250,8 +7300,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6283,8 +7339,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6316,8 +7378,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6349,8 +7417,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6382,8 +7456,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6415,8 +7495,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6448,8 +7534,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6481,8 +7573,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6514,8 +7612,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +7651,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6580,8 +7690,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6613,8 +7729,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6646,8 +7768,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6679,8 +7807,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6712,8 +7846,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6745,8 +7885,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6778,8 +7924,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6811,8 +7963,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6844,8 +8002,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6877,8 +8041,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6910,8 +8080,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6943,8 +8119,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6976,8 +8158,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7009,8 +8197,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7042,8 +8236,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7075,8 +8275,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7108,8 +8314,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7141,8 +8353,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7174,8 +8392,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7207,8 +8431,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7240,8 +8470,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7273,8 +8509,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7306,8 +8548,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7339,8 +8587,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7372,8 +8626,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7405,8 +8665,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7438,8 +8704,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7471,8 +8743,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7504,8 +8782,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7537,8 +8821,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7570,8 +8860,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7603,8 +8899,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7636,8 +8938,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7669,8 +8977,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +9016,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7735,8 +9055,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7768,8 +9094,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7801,8 +9133,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7834,8 +9172,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7867,8 +9211,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7900,8 +9250,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7933,8 +9289,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7966,8 +9328,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7999,8 +9367,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8029,13 +9403,19 @@
         <v>1375836.41056905</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L230" t="n">
-        <v>1</v>
+        <v>1.030764800969893</v>
       </c>
       <c r="M230" t="inlineStr"/>
     </row>
@@ -8161,7 +9541,7 @@
         <v>1376118.28041248</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8194,7 +9574,7 @@
         <v>1375816.20491248</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8227,7 +9607,7 @@
         <v>1393593.68176973</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8260,7 +9640,7 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8293,7 +9673,7 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8326,7 +9706,7 @@
         <v>1391640.73226973</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8359,7 +9739,7 @@
         <v>1393133.28536973</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8392,7 +9772,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8425,7 +9805,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8458,7 +9838,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8491,7 +9871,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8524,7 +9904,7 @@
         <v>1393769.50086973</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8557,7 +9937,7 @@
         <v>1359610.68736973</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8590,7 +9970,7 @@
         <v>1349258.73496973</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8623,7 +10003,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8656,7 +10036,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8689,7 +10069,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8722,7 +10102,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8755,7 +10135,7 @@
         <v>1280018.30036973</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8788,7 +10168,7 @@
         <v>1286538.35067326</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8821,7 +10201,7 @@
         <v>1282848.95673387</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8854,7 +10234,7 @@
         <v>1236132.01273387</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10339,7 +11719,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10372,7 +11752,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10405,7 +11785,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10438,7 +11818,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10471,7 +11851,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10504,7 +11884,7 @@
         <v>1170726.1020813</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10537,7 +11917,7 @@
         <v>1171055.30425016</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10570,7 +11950,7 @@
         <v>1166055.51635016</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10603,7 +11983,7 @@
         <v>1157005.51635016</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10636,7 +12016,7 @@
         <v>1117978.42610878</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10669,7 +12049,7 @@
         <v>1215182.30760878</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10702,7 +12082,7 @@
         <v>1212099.52760878</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10735,7 +12115,7 @@
         <v>1222801.55670878</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10768,7 +12148,7 @@
         <v>1221916.68530878</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10801,7 +12181,7 @@
         <v>1196687.58420878</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10834,7 +12214,7 @@
         <v>1198122.473608779</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10867,7 +12247,7 @@
         <v>748245.0418800095</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10900,7 +12280,7 @@
         <v>643904.0021800095</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12814,10 +14194,14 @@
         <v>170980.8144163495</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="J375" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
@@ -12847,11 +14231,19 @@
         <v>170980.8144163495</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="J376" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12880,11 +14272,19 @@
         <v>222758.0725163495</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="J377" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12913,11 +14313,19 @@
         <v>222758.0725163495</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="J378" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12946,11 +14354,19 @@
         <v>181103.3624163495</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="J379" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12979,11 +14395,19 @@
         <v>284627.3804163494</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="J380" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13012,11 +14436,19 @@
         <v>277495.4595163494</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>50.55</v>
+      </c>
+      <c r="J381" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13045,11 +14477,19 @@
         <v>277495.4595163494</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="J382" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13078,11 +14518,19 @@
         <v>234600.2884163494</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="J383" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13111,11 +14559,19 @@
         <v>308274.7667163494</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="J384" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13144,11 +14600,19 @@
         <v>308274.7667163494</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J385" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13177,11 +14641,19 @@
         <v>304086.0348163494</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J386" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13215,10 +14687,12 @@
       <c r="I387" t="n">
         <v>50.38</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L387" t="n">
@@ -13249,10 +14723,14 @@
         <v>627228.9384163495</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>50.42</v>
+      </c>
+      <c r="J388" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13291,7 +14769,9 @@
       <c r="I389" t="n">
         <v>50.44</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13330,7 +14810,9 @@
       <c r="I390" t="n">
         <v>50.26</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13369,7 +14851,9 @@
       <c r="I391" t="n">
         <v>50.26</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13403,12 +14887,12 @@
         <v>341194.0316163495</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>50.26</v>
-      </c>
-      <c r="J392" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13447,7 +14931,9 @@
       <c r="I393" t="n">
         <v>50.04</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13486,7 +14972,9 @@
       <c r="I394" t="n">
         <v>50.03</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13525,7 +15013,9 @@
       <c r="I395" t="n">
         <v>50.18</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13564,7 +15054,9 @@
       <c r="I396" t="n">
         <v>50.18</v>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13598,12 +15090,12 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>50.18</v>
-      </c>
-      <c r="J397" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13637,12 +15129,12 @@
         <v>165326.9262163495</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>50.18</v>
-      </c>
-      <c r="J398" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13679,7 +15171,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13716,7 +15210,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13755,7 +15251,9 @@
       <c r="I401" t="n">
         <v>50.17</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13789,10 +15287,14 @@
         <v>57946.40661634946</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>49.81</v>
+      </c>
+      <c r="J402" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13826,10 +15328,14 @@
         <v>15257.85951634946</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="J403" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13863,12 +15369,12 @@
         <v>-1721.751283650538</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>50.15</v>
-      </c>
-      <c r="J404" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,12 +15408,12 @@
         <v>77702.66501634946</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>50.13</v>
-      </c>
-      <c r="J405" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13941,12 +15447,12 @@
         <v>77702.66501634946</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>50.17</v>
-      </c>
-      <c r="J406" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13983,7 +15489,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,7 +15528,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14057,7 +15567,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14094,7 +15606,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14131,7 +15645,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14168,7 +15684,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14205,7 +15723,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14242,7 +15762,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14281,7 +15803,9 @@
       <c r="I415" t="n">
         <v>50.17</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14315,12 +15839,12 @@
         <v>281666.5908351095</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>50.31</v>
-      </c>
-      <c r="J416" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14354,12 +15878,12 @@
         <v>282165.2794899795</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>50.31</v>
-      </c>
-      <c r="J417" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14396,7 +15920,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14433,7 +15959,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14470,7 +15998,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14507,7 +16037,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,7 +16076,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14581,7 +16115,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14618,7 +16154,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14655,7 +16193,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14692,7 +16232,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14729,7 +16271,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14766,7 +16310,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14803,7 +16349,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14840,7 +16388,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14877,7 +16427,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14914,7 +16466,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14951,7 +16505,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14988,7 +16544,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15025,7 +16583,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15062,7 +16622,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15099,7 +16661,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15136,7 +16700,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15173,7 +16739,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15210,7 +16778,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,7 +16817,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15284,7 +16856,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,7 +16895,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15358,7 +16934,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15395,7 +16973,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15432,7 +17012,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15469,7 +17051,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15506,7 +17090,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15543,7 +17129,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15580,7 +17168,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15617,7 +17207,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15654,7 +17246,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15691,7 +17285,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15728,7 +17324,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15765,7 +17363,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,7 +17402,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15839,7 +17441,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15876,7 +17480,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15913,7 +17519,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15950,7 +17558,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15987,7 +17597,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16024,7 +17636,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16061,7 +17675,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16098,7 +17714,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16135,7 +17753,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16172,7 +17792,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16209,7 +17831,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16246,7 +17870,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16283,7 +17909,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16320,7 +17948,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16357,7 +17987,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16394,7 +18026,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16431,7 +18065,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16468,7 +18104,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16505,7 +18143,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16542,7 +18182,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16579,7 +18221,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16616,7 +18260,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16653,7 +18299,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16690,7 +18338,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16727,7 +18377,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16764,7 +18416,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16801,7 +18455,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16838,7 +18494,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16875,7 +18533,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16912,7 +18572,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16946,12 +18608,12 @@
         <v>581702.9739364394</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="J487" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16985,12 +18647,12 @@
         <v>579742.9281364394</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>48.89</v>
-      </c>
-      <c r="J488" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17024,12 +18686,12 @@
         <v>557345.3614364394</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="J489" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17063,12 +18725,12 @@
         <v>560469.4465364395</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>48.61</v>
-      </c>
-      <c r="J490" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17102,12 +18764,12 @@
         <v>559469.4465364395</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="J491" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17141,12 +18803,12 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>48.74</v>
-      </c>
-      <c r="J492" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17180,12 +18842,12 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="J493" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17219,12 +18881,12 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="J494" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17258,12 +18920,12 @@
         <v>570022.6329364395</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="J495" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17297,12 +18959,12 @@
         <v>571426.5272364395</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="J496" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17339,7 +19001,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17376,7 +19040,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17413,7 +19079,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17450,7 +19118,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17487,7 +19157,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17524,7 +19196,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17561,7 +19235,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17598,7 +19274,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17635,7 +19313,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17672,7 +19352,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17709,7 +19391,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17746,7 +19430,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17783,7 +19469,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17820,7 +19508,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17857,7 +19547,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17894,7 +19586,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17931,7 +19625,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17968,7 +19664,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18005,7 +19703,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18042,7 +19742,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18079,7 +19781,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18116,7 +19820,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18153,7 +19859,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18190,7 +19898,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18227,7 +19937,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18264,7 +19976,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18301,7 +20015,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18338,7 +20054,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18375,7 +20093,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18412,7 +20132,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18449,7 +20171,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18486,7 +20210,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18523,7 +20249,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18560,7 +20288,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18594,16 +20324,20 @@
         <v>571335.3618422195</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>50.51</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L531" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
       <c r="M531" t="inlineStr"/>
     </row>
     <row r="532">
@@ -18629,11 +20363,17 @@
         <v>570242.9556422195</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18662,11 +20402,17 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18695,11 +20441,17 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18728,11 +20480,17 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18761,11 +20519,17 @@
         <v>566953.8422422195</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18794,11 +20558,17 @@
         <v>661553.8422422195</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18827,11 +20597,17 @@
         <v>673134.0522422194</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18860,11 +20636,17 @@
         <v>673134.0522422194</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18893,11 +20675,17 @@
         <v>687400.5964422195</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18926,11 +20714,17 @@
         <v>687400.5964422195</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18959,11 +20753,17 @@
         <v>646677.3508422194</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18992,11 +20792,17 @@
         <v>646677.3508422194</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19025,11 +20831,17 @@
         <v>628470.6253422194</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19058,11 +20870,17 @@
         <v>1031294.495042219</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19091,11 +20909,17 @@
         <v>1021591.265842219</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19124,11 +20948,17 @@
         <v>1179386.919742219</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19157,11 +20987,17 @@
         <v>1179386.919742219</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19190,11 +21026,17 @@
         <v>1179534.574942219</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19223,11 +21065,17 @@
         <v>1179717.818942219</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19256,11 +21104,17 @@
         <v>1178875.961442219</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19289,11 +21143,17 @@
         <v>1178875.961442219</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19325,8 +21185,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19358,8 +21224,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19391,8 +21263,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19424,8 +21302,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19457,8 +21341,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19490,8 +21380,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19523,8 +21419,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19556,8 +21458,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19589,8 +21497,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19622,8 +21536,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19655,8 +21575,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19688,8 +21614,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19721,8 +21653,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19754,8 +21692,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19787,8 +21731,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19820,8 +21770,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19853,8 +21809,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19883,11 +21845,17 @@
         <v>994733.2346167694</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19916,11 +21884,17 @@
         <v>999144.4532167694</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19949,11 +21923,17 @@
         <v>999111.4532167694</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19985,8 +21965,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20018,8 +22004,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20051,8 +22043,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20084,8 +22082,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20117,8 +22121,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20150,8 +22160,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20183,8 +22199,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20216,8 +22238,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20249,8 +22277,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20282,8 +22316,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20315,8 +22355,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20348,8 +22394,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20381,8 +22433,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20414,8 +22472,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20447,8 +22511,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20480,8 +22550,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20513,8 +22589,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20546,8 +22628,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20579,8 +22667,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20612,8 +22706,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20645,8 +22745,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20678,8 +22784,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20711,8 +22823,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20744,8 +22862,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20777,8 +22901,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20810,8 +22940,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20843,8 +22979,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20876,8 +23018,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20909,8 +23057,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20942,8 +23096,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20975,8 +23135,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21008,8 +23174,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21041,8 +23213,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21074,8 +23252,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21107,8 +23291,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21140,8 +23330,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21173,8 +23369,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21206,8 +23408,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21239,8 +23447,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21272,8 +23486,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21305,8 +23525,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21338,8 +23564,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21371,8 +23603,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21404,8 +23642,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21437,8 +23681,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21470,8 +23720,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21503,8 +23759,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21536,8 +23798,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21569,8 +23837,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21602,8 +23876,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21635,8 +23915,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21668,8 +23954,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21701,8 +23993,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21734,8 +24032,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21767,8 +24071,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21800,8 +24110,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21830,11 +24146,17 @@
         <v>953586.1773402494</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21866,8 +24188,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21899,8 +24227,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21932,8 +24266,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21965,8 +24305,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21998,8 +24344,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22031,8 +24383,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22061,11 +24419,17 @@
         <v>1307573.10354025</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22094,11 +24458,17 @@
         <v>1307573.10354025</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22127,11 +24497,17 @@
         <v>1321933.34214025</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22160,11 +24536,17 @@
         <v>1363791.06434025</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22193,11 +24575,17 @@
         <v>1363850.53784025</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22229,8 +24617,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22262,8 +24656,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22295,8 +24695,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22328,8 +24734,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22361,8 +24773,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22394,8 +24812,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22427,8 +24851,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22460,8 +24890,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22493,8 +24929,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22526,8 +24968,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22559,8 +25007,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22592,8 +25046,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22622,13 +25082,19 @@
         <v>1690153.32854167</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L653" t="n">
-        <v>1</v>
+        <v>1.005097010492972</v>
       </c>
       <c r="M653" t="inlineStr"/>
     </row>
@@ -22655,7 +25121,7 @@
         <v>1694752.42844167</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22688,7 +25154,7 @@
         <v>1709932.459244299</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22721,7 +25187,7 @@
         <v>1520895.24403678</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22754,7 +25220,7 @@
         <v>1514091.924036779</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22787,7 +25253,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22820,7 +25286,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22853,7 +25319,7 @@
         <v>1400006.31213678</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22886,7 +25352,7 @@
         <v>1399889.453636779</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22919,7 +25385,7 @@
         <v>1392811.355236779</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22952,7 +25418,7 @@
         <v>1393666.08913678</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22985,7 +25451,7 @@
         <v>1302816.646736779</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23018,7 +25484,7 @@
         <v>1220896.73083678</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23315,7 +25781,7 @@
         <v>939706.9841535796</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23348,7 +25814,7 @@
         <v>911021.8897535796</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23381,7 +25847,7 @@
         <v>922531.3964535797</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23447,7 +25913,7 @@
         <v>918927.2594535797</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24470,7 +26936,7 @@
         <v>1405548.21715358</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24503,7 +26969,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24536,7 +27002,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24569,7 +27035,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24602,7 +27068,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24635,7 +27101,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24701,7 +27167,7 @@
         <v>1386569.90205358</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24734,7 +27200,7 @@
         <v>1202622.48185358</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25790,7 +28256,7 @@
         <v>1486186.25631229</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25823,7 +28289,7 @@
         <v>1485396.52051229</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25856,7 +28322,7 @@
         <v>1498691.52261229</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25889,7 +28355,7 @@
         <v>1562469.05769633</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25922,7 +28388,7 @@
         <v>1459424.64699633</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25955,7 +28421,7 @@
         <v>1347224.03039633</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25988,7 +28454,7 @@
         <v>1332284.44169633</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26021,7 +28487,7 @@
         <v>1336614.44169633</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26054,7 +28520,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26087,7 +28553,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26120,7 +28586,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26153,7 +28619,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26186,7 +28652,7 @@
         <v>1339223.61639633</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26219,7 +28685,7 @@
         <v>1343142.82532525</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26252,7 +28718,7 @@
         <v>1341601.35522525</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26450,7 +28916,7 @@
         <v>1708930.34722447</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26483,7 +28949,7 @@
         <v>1815686.43223999</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26516,7 +28982,7 @@
         <v>1816600.23223999</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26549,7 +29015,7 @@
         <v>1766600.23223999</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
